--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_14-20.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_14-20.xlsx
@@ -179,6 +179,9 @@
     <t>0:19</t>
   </si>
   <si>
+    <t>RESTOHERB SYRUP</t>
+  </si>
+  <si>
     <t>RICHI PANTHENOL CREAM 50GM</t>
   </si>
   <si>
@@ -200,7 +203,7 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:1</t>
+    <t>3:3</t>
   </si>
   <si>
     <t>YEAST MEPACO 60 TABS</t>
@@ -215,13 +218,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>-2:0</t>
+    <t>-1:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>-1:0</t>
   </si>
   <si>
     <t>محلول خليط</t>
@@ -1574,13 +1574,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
@@ -1600,13 +1600,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>73.319999999999993</v>
+        <v>62</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
@@ -1626,17 +1626,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>45.5</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1644,7 +1644,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1652,17 +1652,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>116</v>
+        <v>45.5</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1684,11 +1684,11 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1704,17 +1704,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1722,7 +1722,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1730,17 +1730,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>1</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1756,13 +1756,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
@@ -1774,7 +1774,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1782,17 +1782,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1800,7 +1800,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1808,17 +1808,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1826,7 +1826,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1834,51 +1834,77 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="K44" s="11">
-        <v>2014.5899999999999</v>
-      </c>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="12">
+    <row r="44" ht="24.75" customHeight="1">
+      <c r="A44" s="6">
+        <v>41</v>
+      </c>
+      <c t="s" r="B44" s="7">
+        <v>71</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c t="s" r="H44" s="8">
+        <v>67</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="9">
+        <v>27</v>
+      </c>
+      <c r="M44" s="9"/>
+      <c r="N44" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" ht="26.25" customHeight="1">
+      <c r="K45" s="11">
+        <v>2078.5900000000001</v>
+      </c>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="12">
         <v>72</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c t="s" r="F45" s="13">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c t="s" r="F46" s="13">
         <v>73</v>
       </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="14"/>
-      <c t="s" r="I45" s="15">
+      <c r="G46" s="13"/>
+      <c r="H46" s="14"/>
+      <c t="s" r="I46" s="15">
         <v>74</v>
       </c>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="131">
+  <mergeCells count="134">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2006,10 +2032,13 @@
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="I46:N46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
